--- a/Rozliczenie.xlsx
+++ b/Rozliczenie.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Day</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>2.56</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,8 +428,12 @@
       <c r="A2" s="2">
         <v>42830</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>229</v>
+      </c>
       <c r="D2" s="1">
         <v>200</v>
       </c>

--- a/Rozliczenie.xlsx
+++ b/Rozliczenie.xlsx
@@ -30,7 +30,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>2.56</t>
+    <t>2.34</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,22 +426,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42830</v>
+        <v>42838</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>229</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>42832</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -449,9 +445,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42833</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -459,9 +453,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42834</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -469,9 +461,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>42836</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -479,9 +469,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42838</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -489,9 +477,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>42839</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -499,9 +485,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>42840</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -509,9 +493,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>42841</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1">

--- a/Rozliczenie.xlsx
+++ b/Rozliczenie.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Day</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>2.34</t>
+  </si>
+  <si>
+    <t>2.16</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,14 +434,20 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>206</v>
+      </c>
       <c r="D2" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2">
+        <v>42839</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>400</v>
